--- a/FinalProject/sample.xlsx
+++ b/FinalProject/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\94868\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19613FCC-CD6B-468A-B997-0627003AE29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E668202-98C2-48F9-8EC7-55E4A30BA68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{657EADEB-7126-4D02-9B4F-5D5890EB9B76}"/>
   </bookViews>
@@ -634,15 +634,15 @@
     <t>丁大可</t>
   </si>
   <si>
-    <t>pinyin order(According to the sorting rules of the Chinese dictionary)  {MSD, HuskySort,DualPrivotSort,TimSort}</t>
+    <t>Stroke order {SqlSort, merge sort with multithreading}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pinyin oreder(no considering polyphone){SqlSort}</t>
+    <t>pinyin oreder(no considering polyphone){SqlSort，MSD, HuskySort,TimSort，DualPrivotSort}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Stroke order {SqlSort, merge sort with multithreading}</t>
+    <t>pinyin order(According to the sorting rules of the Chinese dictionary)  {Excel}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1009,25 +1009,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28386F7D-A4DD-437A-8F57-0734A7416ACE}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="106.5" customWidth="1"/>
-    <col min="2" max="6" width="71.83203125" customWidth="1"/>
+    <col min="2" max="2" width="84.25" customWidth="1"/>
+    <col min="3" max="6" width="71.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s">
         <v>201</v>
       </c>
       <c r="C1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">

--- a/FinalProject/sample.xlsx
+++ b/FinalProject/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\94868\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E668202-98C2-48F9-8EC7-55E4A30BA68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B7A2E1-E1F6-47DF-900A-8B5AB69F7687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{657EADEB-7126-4D02-9B4F-5D5890EB9B76}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="1003">
   <si>
     <t>阿安</t>
   </si>
@@ -638,12 +638,2410 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pinyin oreder(no considering polyphone){SqlSort，MSD, HuskySort,TimSort，DualPrivotSort}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pinyin order(According to the sorting rules of the Chinese dictionary)  {Excel}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>阿杰杰</t>
+  </si>
+  <si>
+    <t>阿洁</t>
+  </si>
+  <si>
+    <t>阿婕</t>
+  </si>
+  <si>
+    <t>阿瑾</t>
+  </si>
+  <si>
+    <t>阿进</t>
+  </si>
+  <si>
+    <t>阿劲</t>
+  </si>
+  <si>
+    <t>阿晋</t>
+  </si>
+  <si>
+    <t>阿京</t>
+  </si>
+  <si>
+    <t>阿菁</t>
+  </si>
+  <si>
+    <t>阿晶</t>
+  </si>
+  <si>
+    <t>阿景</t>
+  </si>
+  <si>
+    <t>阿婧</t>
+  </si>
+  <si>
+    <t>阿靓</t>
+  </si>
+  <si>
+    <t>阿敬</t>
+  </si>
+  <si>
+    <t>阿静</t>
+  </si>
+  <si>
+    <t>阿桔</t>
+  </si>
+  <si>
+    <t>阿菊</t>
+  </si>
+  <si>
+    <t>阿涓</t>
+  </si>
+  <si>
+    <t>阿鹃</t>
+  </si>
+  <si>
+    <t>阿军</t>
+  </si>
+  <si>
+    <t>阿均</t>
+  </si>
+  <si>
+    <t>阿君</t>
+  </si>
+  <si>
+    <t>阿君君</t>
+  </si>
+  <si>
+    <t>阿俊</t>
+  </si>
+  <si>
+    <t>阿骏</t>
+  </si>
+  <si>
+    <t>阿凯</t>
+  </si>
+  <si>
+    <t>阿恺</t>
+  </si>
+  <si>
+    <t>阿珂</t>
+  </si>
+  <si>
+    <t>阿可</t>
+  </si>
+  <si>
+    <t>阿葵</t>
+  </si>
+  <si>
+    <t>阿魁</t>
+  </si>
+  <si>
+    <t>阿昆</t>
+  </si>
+  <si>
+    <t>阿琨</t>
+  </si>
+  <si>
+    <t>阿鲲</t>
+  </si>
+  <si>
+    <t>阿兰</t>
+  </si>
+  <si>
+    <t>阿兰兰</t>
+  </si>
+  <si>
+    <t>阿岚</t>
+  </si>
+  <si>
+    <t>阿澜</t>
+  </si>
+  <si>
+    <t>阿磊</t>
+  </si>
+  <si>
+    <t>阿蕾</t>
+  </si>
+  <si>
+    <t>阿蕾蕾</t>
+  </si>
+  <si>
+    <t>阿礼</t>
+  </si>
+  <si>
+    <t>阿理</t>
+  </si>
+  <si>
+    <t>阿历</t>
+  </si>
+  <si>
+    <t>阿立</t>
+  </si>
+  <si>
+    <t>阿莉</t>
+  </si>
+  <si>
+    <t>阿栗</t>
+  </si>
+  <si>
+    <t>阿亮</t>
+  </si>
+  <si>
+    <t>阿邻</t>
+  </si>
+  <si>
+    <t>阿林</t>
+  </si>
+  <si>
+    <t>阿琳</t>
+  </si>
+  <si>
+    <t>阿霖</t>
+  </si>
+  <si>
+    <t>阿麟</t>
+  </si>
+  <si>
+    <t>阿灵</t>
+  </si>
+  <si>
+    <t>阿玲</t>
+  </si>
+  <si>
+    <t>阿铃</t>
+  </si>
+  <si>
+    <t>阿凌</t>
+  </si>
+  <si>
+    <t>阿菱</t>
+  </si>
+  <si>
+    <t>阿柳</t>
+  </si>
+  <si>
+    <t>阿龙龙</t>
+  </si>
+  <si>
+    <t>阿鹿</t>
+  </si>
+  <si>
+    <t>阿璐</t>
+  </si>
+  <si>
+    <t>阿璐璐</t>
+  </si>
+  <si>
+    <t>阿鹭</t>
+  </si>
+  <si>
+    <t>阿露</t>
+  </si>
+  <si>
+    <t>阿露露</t>
+  </si>
+  <si>
+    <t>阿鸾</t>
+  </si>
+  <si>
+    <t>阿玫</t>
+  </si>
+  <si>
+    <t>阿梅</t>
+  </si>
+  <si>
+    <t>阿湄</t>
+  </si>
+  <si>
+    <t>阿萌</t>
+  </si>
+  <si>
+    <t>阿密</t>
+  </si>
+  <si>
+    <t>阿勉</t>
+  </si>
+  <si>
+    <t>阿苗</t>
+  </si>
+  <si>
+    <t>阿渺</t>
+  </si>
+  <si>
+    <t>阿民</t>
+  </si>
+  <si>
+    <t>阿珉</t>
+  </si>
+  <si>
+    <t>阿鸣</t>
+  </si>
+  <si>
+    <t>阿娜</t>
+  </si>
+  <si>
+    <t>阿楠</t>
+  </si>
+  <si>
+    <t>阿念</t>
+  </si>
+  <si>
+    <t>阿盼</t>
+  </si>
+  <si>
+    <t>阿培</t>
+  </si>
+  <si>
+    <t>阿沛</t>
+  </si>
+  <si>
+    <t>阿霈</t>
+  </si>
+  <si>
+    <t>阿朋</t>
+  </si>
+  <si>
+    <t>阿鹏</t>
+  </si>
+  <si>
+    <t>阿品</t>
+  </si>
+  <si>
+    <t>阿平</t>
+  </si>
+  <si>
+    <t>阿屏</t>
+  </si>
+  <si>
+    <t>阿萍</t>
+  </si>
+  <si>
+    <t>阿璞</t>
+  </si>
+  <si>
+    <t>阿琪</t>
+  </si>
+  <si>
+    <t>阿琪琪</t>
+  </si>
+  <si>
+    <t>阿琦</t>
+  </si>
+  <si>
+    <t>阿棋</t>
+  </si>
+  <si>
+    <t>阿祺</t>
+  </si>
+  <si>
+    <t>阿芊</t>
+  </si>
+  <si>
+    <t>阿谦</t>
+  </si>
+  <si>
+    <t>阿前</t>
+  </si>
+  <si>
+    <t>阿乾</t>
+  </si>
+  <si>
+    <t>阿茜</t>
+  </si>
+  <si>
+    <t>阿倩</t>
+  </si>
+  <si>
+    <t>阿强</t>
+  </si>
+  <si>
+    <t>阿桥</t>
+  </si>
+  <si>
+    <t>阿巧</t>
+  </si>
+  <si>
+    <t>阿俏</t>
+  </si>
+  <si>
+    <t>阿芹</t>
+  </si>
+  <si>
+    <t>阿秦</t>
+  </si>
+  <si>
+    <t>阿琴</t>
+  </si>
+  <si>
+    <t>阿勤</t>
+  </si>
+  <si>
+    <t>阿青</t>
+  </si>
+  <si>
+    <t>阿卿</t>
+  </si>
+  <si>
+    <t>阿清</t>
+  </si>
+  <si>
+    <t>阿晴</t>
+  </si>
+  <si>
+    <t>阿琼</t>
+  </si>
+  <si>
+    <t>阿秋秋</t>
+  </si>
+  <si>
+    <t>阿曲</t>
+  </si>
+  <si>
+    <t>阿泉</t>
+  </si>
+  <si>
+    <t>阿然</t>
+  </si>
+  <si>
+    <t>阿戎</t>
+  </si>
+  <si>
+    <t>阿蓉</t>
+  </si>
+  <si>
+    <t>阿榕</t>
+  </si>
+  <si>
+    <t>阿汝</t>
+  </si>
+  <si>
+    <t>阿蕊</t>
+  </si>
+  <si>
+    <t>阿锐</t>
+  </si>
+  <si>
+    <t>阿瑞</t>
+  </si>
+  <si>
+    <t>阿润</t>
+  </si>
+  <si>
+    <t>阿纱</t>
+  </si>
+  <si>
+    <t>阿杉</t>
+  </si>
+  <si>
+    <t>阿珊</t>
+  </si>
+  <si>
+    <t>阿生</t>
+  </si>
+  <si>
+    <t>阿声</t>
+  </si>
+  <si>
+    <t>阿胜</t>
+  </si>
+  <si>
+    <t>阿盛</t>
+  </si>
+  <si>
+    <t>阿实</t>
+  </si>
+  <si>
+    <t>阿殊</t>
+  </si>
+  <si>
+    <t>阿术</t>
+  </si>
+  <si>
+    <t>阿述</t>
+  </si>
+  <si>
+    <t>阿思</t>
+  </si>
+  <si>
+    <t>阿思根</t>
+  </si>
+  <si>
+    <t>阿思思</t>
+  </si>
+  <si>
+    <t>阿斯满</t>
+  </si>
+  <si>
+    <t>阿斯娜</t>
+  </si>
+  <si>
+    <t>阿松</t>
+  </si>
+  <si>
+    <t>阿苏苏</t>
+  </si>
+  <si>
+    <t>阿拓</t>
+  </si>
+  <si>
+    <t>阿台</t>
+  </si>
+  <si>
+    <t>阿涛</t>
+  </si>
+  <si>
+    <t>阿滔</t>
+  </si>
+  <si>
+    <t>阿陶</t>
+  </si>
+  <si>
+    <t>阿田</t>
+  </si>
+  <si>
+    <t>阿庭</t>
+  </si>
+  <si>
+    <t>阿婷</t>
+  </si>
+  <si>
+    <t>阿婷婷</t>
+  </si>
+  <si>
+    <t>阿霆</t>
+  </si>
+  <si>
+    <t>阿彤</t>
+  </si>
+  <si>
+    <t>阿桐</t>
+  </si>
+  <si>
+    <t>阿婉</t>
+  </si>
+  <si>
+    <t>阿威</t>
+  </si>
+  <si>
+    <t>阿薇</t>
+  </si>
+  <si>
+    <t>阿巍</t>
+  </si>
+  <si>
+    <t>阿唯</t>
+  </si>
+  <si>
+    <t>阿伟</t>
+  </si>
+  <si>
+    <t>阿纬</t>
+  </si>
+  <si>
+    <t>阿玮</t>
+  </si>
+  <si>
+    <t>阿炜</t>
+  </si>
+  <si>
+    <t>阿卫</t>
+  </si>
+  <si>
+    <t>阿未</t>
+  </si>
+  <si>
+    <t>阿文文</t>
+  </si>
+  <si>
+    <t>阿雯</t>
+  </si>
+  <si>
+    <t>阿雯雯</t>
+  </si>
+  <si>
+    <t>阿希娜</t>
+  </si>
+  <si>
+    <t>阿惜</t>
+  </si>
+  <si>
+    <t>阿熙</t>
+  </si>
+  <si>
+    <t>阿熹</t>
+  </si>
+  <si>
+    <t>阿曦</t>
+  </si>
+  <si>
+    <t>阿玺</t>
+  </si>
+  <si>
+    <t>阿侠</t>
+  </si>
+  <si>
+    <t>阿霞</t>
+  </si>
+  <si>
+    <t>阿夏</t>
+  </si>
+  <si>
+    <t>阿鲜</t>
+  </si>
+  <si>
+    <t>阿湘</t>
+  </si>
+  <si>
+    <t>阿潇</t>
+  </si>
+  <si>
+    <t>阿晓</t>
+  </si>
+  <si>
+    <t>阿昕</t>
+  </si>
+  <si>
+    <t>阿新</t>
+  </si>
+  <si>
+    <t>阿馨</t>
+  </si>
+  <si>
+    <t>阿鑫</t>
+  </si>
+  <si>
+    <t>阿行</t>
+  </si>
+  <si>
+    <t>阿杏</t>
+  </si>
+  <si>
+    <t>阿幸</t>
+  </si>
+  <si>
+    <t>阿旭</t>
+  </si>
+  <si>
+    <t>阿叙</t>
+  </si>
+  <si>
+    <t>阿轩</t>
+  </si>
+  <si>
+    <t>阿宣</t>
+  </si>
+  <si>
+    <t>阿萱</t>
+  </si>
+  <si>
+    <t>阿玄</t>
+  </si>
+  <si>
+    <t>阿旋</t>
+  </si>
+  <si>
+    <t>阿璇</t>
+  </si>
+  <si>
+    <t>阿学</t>
+  </si>
+  <si>
+    <t>阿雪</t>
+  </si>
+  <si>
+    <t>阿雪雪</t>
+  </si>
+  <si>
+    <t>阿言</t>
+  </si>
+  <si>
+    <t>阿妍</t>
+  </si>
+  <si>
+    <t>阿岩</t>
+  </si>
+  <si>
+    <t>阿炎</t>
+  </si>
+  <si>
+    <t>阿颜</t>
+  </si>
+  <si>
+    <t>阿衍</t>
+  </si>
+  <si>
+    <t>阿彦</t>
+  </si>
+  <si>
+    <t>阿艳</t>
+  </si>
+  <si>
+    <t>阿雁</t>
+  </si>
+  <si>
+    <t>阿燕</t>
+  </si>
+  <si>
+    <t>阿阳</t>
+  </si>
+  <si>
+    <t>阿杨</t>
+  </si>
+  <si>
+    <t>阿洋</t>
+  </si>
+  <si>
+    <t>阿尧</t>
+  </si>
+  <si>
+    <t>阿遥</t>
+  </si>
+  <si>
+    <t>阿瑶</t>
+  </si>
+  <si>
+    <t>阿也</t>
+  </si>
+  <si>
+    <t>阿伊娜</t>
+  </si>
+  <si>
+    <t>阿依</t>
+  </si>
+  <si>
+    <t>阿依古</t>
+  </si>
+  <si>
+    <t>阿依娜</t>
+  </si>
+  <si>
+    <t>阿夷</t>
+  </si>
+  <si>
+    <t>阿怡</t>
+  </si>
+  <si>
+    <t>阿宜</t>
+  </si>
+  <si>
+    <t>阿乙</t>
+  </si>
+  <si>
+    <t>阿义</t>
+  </si>
+  <si>
+    <t>阿弋</t>
+  </si>
+  <si>
+    <t>阿忆</t>
+  </si>
+  <si>
+    <t>阿益</t>
+  </si>
+  <si>
+    <t>阿逸</t>
+  </si>
+  <si>
+    <t>阿翊</t>
+  </si>
+  <si>
+    <t>阿意</t>
+  </si>
+  <si>
+    <t>阿毅</t>
+  </si>
+  <si>
+    <t>阿茵</t>
+  </si>
+  <si>
+    <t>阿音</t>
+  </si>
+  <si>
+    <t>阿寅</t>
+  </si>
+  <si>
+    <t>阿隐</t>
+  </si>
+  <si>
+    <t>阿英</t>
+  </si>
+  <si>
+    <t>阿婴</t>
+  </si>
+  <si>
+    <t>阿樱</t>
+  </si>
+  <si>
+    <t>阿鹰</t>
+  </si>
+  <si>
+    <t>阿迎</t>
+  </si>
+  <si>
+    <t>阿盈</t>
+  </si>
+  <si>
+    <t>阿莹</t>
+  </si>
+  <si>
+    <t>阿滢</t>
+  </si>
+  <si>
+    <t>阿影</t>
+  </si>
+  <si>
+    <t>阿映</t>
+  </si>
+  <si>
+    <t>阿雍</t>
+  </si>
+  <si>
+    <t>阿永</t>
+  </si>
+  <si>
+    <t>阿勇</t>
+  </si>
+  <si>
+    <t>阿涌</t>
+  </si>
+  <si>
+    <t>阿优</t>
+  </si>
+  <si>
+    <t>阿幼朵</t>
+  </si>
+  <si>
+    <t>阿余</t>
+  </si>
+  <si>
+    <t>阿愉</t>
+  </si>
+  <si>
+    <t>阿瑜</t>
+  </si>
+  <si>
+    <t>阿宇</t>
+  </si>
+  <si>
+    <t>阿羽</t>
+  </si>
+  <si>
+    <t>阿雨</t>
+  </si>
+  <si>
+    <t>阿语</t>
+  </si>
+  <si>
+    <t>阿郁</t>
+  </si>
+  <si>
+    <t>阿育</t>
+  </si>
+  <si>
+    <t>阿钰</t>
+  </si>
+  <si>
+    <t>阿裕</t>
+  </si>
+  <si>
+    <t>阿煜</t>
+  </si>
+  <si>
+    <t>阿誉</t>
+  </si>
+  <si>
+    <t>阿元</t>
+  </si>
+  <si>
+    <t>阿园</t>
+  </si>
+  <si>
+    <t>阿圆</t>
+  </si>
+  <si>
+    <t>阿媛</t>
+  </si>
+  <si>
+    <t>阿源</t>
+  </si>
+  <si>
+    <t>阿岳</t>
+  </si>
+  <si>
+    <t>阿悦</t>
+  </si>
+  <si>
+    <t>阿越</t>
+  </si>
+  <si>
+    <t>阿云</t>
+  </si>
+  <si>
+    <t>阿云锐</t>
+  </si>
+  <si>
+    <t>阿展</t>
+  </si>
+  <si>
+    <t>阿湛</t>
+  </si>
+  <si>
+    <t>阿昭</t>
+  </si>
+  <si>
+    <t>阿贞</t>
+  </si>
+  <si>
+    <t>阿珍</t>
+  </si>
+  <si>
+    <t>阿祯</t>
+  </si>
+  <si>
+    <t>阿甄</t>
+  </si>
+  <si>
+    <t>阿振</t>
+  </si>
+  <si>
+    <t>阿震</t>
+  </si>
+  <si>
+    <t>阿镇</t>
+  </si>
+  <si>
+    <t>阿筝</t>
+  </si>
+  <si>
+    <t>阿政</t>
+  </si>
+  <si>
+    <t>阿知</t>
+  </si>
+  <si>
+    <t>阿植</t>
+  </si>
+  <si>
+    <t>阿治</t>
+  </si>
+  <si>
+    <t>阿智</t>
+  </si>
+  <si>
+    <t>阿忠</t>
+  </si>
+  <si>
+    <t>阿舟</t>
+  </si>
+  <si>
+    <t>阿洲</t>
+  </si>
+  <si>
+    <t>阿珠珠</t>
+  </si>
+  <si>
+    <t>阿孜</t>
+  </si>
+  <si>
+    <t>阿姿</t>
+  </si>
+  <si>
+    <t>艾爱</t>
+  </si>
+  <si>
+    <t>艾爱国</t>
+  </si>
+  <si>
+    <t>艾爱平</t>
+  </si>
+  <si>
+    <t>艾安</t>
+  </si>
+  <si>
+    <t>艾白</t>
+  </si>
+  <si>
+    <t>艾宝</t>
+  </si>
+  <si>
+    <t>艾宝俊</t>
+  </si>
+  <si>
+    <t>艾宝良</t>
+  </si>
+  <si>
+    <t>艾保国</t>
+  </si>
+  <si>
+    <t>艾保良</t>
+  </si>
+  <si>
+    <t>艾保全</t>
+  </si>
+  <si>
+    <t>艾北方</t>
+  </si>
+  <si>
+    <t>艾贝</t>
+  </si>
+  <si>
+    <t>艾贝贝</t>
+  </si>
+  <si>
+    <t>艾蓓</t>
+  </si>
+  <si>
+    <t>艾碧</t>
+  </si>
+  <si>
+    <t>艾彪</t>
+  </si>
+  <si>
+    <t>艾宾</t>
+  </si>
+  <si>
+    <t>艾彬</t>
+  </si>
+  <si>
+    <t>艾彬彬</t>
+  </si>
+  <si>
+    <t>艾斌</t>
+  </si>
+  <si>
+    <t>艾斌斌</t>
+  </si>
+  <si>
+    <t>艾冰</t>
+  </si>
+  <si>
+    <t>艾冰冰</t>
+  </si>
+  <si>
+    <t>艾兵</t>
+  </si>
+  <si>
+    <t>艾兵兵</t>
+  </si>
+  <si>
+    <t>艾波</t>
+  </si>
+  <si>
+    <t>艾柏</t>
+  </si>
+  <si>
+    <t>艾柏林</t>
+  </si>
+  <si>
+    <t>艾博</t>
+  </si>
+  <si>
+    <t>艾博雅</t>
+  </si>
+  <si>
+    <t>艾彩霞</t>
+  </si>
+  <si>
+    <t>艾彩云</t>
+  </si>
+  <si>
+    <t>艾灿</t>
+  </si>
+  <si>
+    <t>艾灿河</t>
+  </si>
+  <si>
+    <t>艾灿民</t>
+  </si>
+  <si>
+    <t>艾常青</t>
+  </si>
+  <si>
+    <t>艾畅</t>
+  </si>
+  <si>
+    <t>艾超</t>
+  </si>
+  <si>
+    <t>艾朝阳</t>
+  </si>
+  <si>
+    <t>艾朝瑛</t>
+  </si>
+  <si>
+    <t>艾晨</t>
+  </si>
+  <si>
+    <t>艾成</t>
+  </si>
+  <si>
+    <t>艾成良</t>
+  </si>
+  <si>
+    <t>艾诚</t>
+  </si>
+  <si>
+    <t>艾承宏</t>
+  </si>
+  <si>
+    <t>艾城</t>
+  </si>
+  <si>
+    <t>艾程</t>
+  </si>
+  <si>
+    <t>艾程程</t>
+  </si>
+  <si>
+    <t>艾橙</t>
+  </si>
+  <si>
+    <t>艾冲</t>
+  </si>
+  <si>
+    <t>艾楚怡</t>
+  </si>
+  <si>
+    <t>艾川</t>
+  </si>
+  <si>
+    <t>艾传伟</t>
+  </si>
+  <si>
+    <t>艾春</t>
+  </si>
+  <si>
+    <t>艾春花</t>
+  </si>
+  <si>
+    <t>艾春华</t>
+  </si>
+  <si>
+    <t>艾春莲</t>
+  </si>
+  <si>
+    <t>艾春梅</t>
+  </si>
+  <si>
+    <t>艾春明</t>
+  </si>
+  <si>
+    <t>艾春荣</t>
+  </si>
+  <si>
+    <t>艾春霞</t>
+  </si>
+  <si>
+    <t>艾春艳</t>
+  </si>
+  <si>
+    <t>艾聪</t>
+  </si>
+  <si>
+    <t>艾翠玲</t>
+  </si>
+  <si>
+    <t>艾妲</t>
+  </si>
+  <si>
+    <t>艾大</t>
+  </si>
+  <si>
+    <t>艾大伟</t>
+  </si>
+  <si>
+    <t>艾黛</t>
+  </si>
+  <si>
+    <t>艾丹</t>
+  </si>
+  <si>
+    <t>艾丹丹</t>
+  </si>
+  <si>
+    <t>艾丹娜</t>
+  </si>
+  <si>
+    <t>艾丹妮</t>
+  </si>
+  <si>
+    <t>艾丹青</t>
+  </si>
+  <si>
+    <t>艾得胜</t>
+  </si>
+  <si>
+    <t>艾德江</t>
+  </si>
+  <si>
+    <t>艾德礼</t>
+  </si>
+  <si>
+    <t>艾德林</t>
+  </si>
+  <si>
+    <t>艾德琳</t>
+  </si>
+  <si>
+    <t>艾德龙</t>
+  </si>
+  <si>
+    <t>艾德生</t>
+  </si>
+  <si>
+    <t>艾德文</t>
+  </si>
+  <si>
+    <t>艾狄</t>
+  </si>
+  <si>
+    <t>艾迪</t>
+  </si>
+  <si>
+    <t>艾迪娜</t>
+  </si>
+  <si>
+    <t>艾荻</t>
+  </si>
+  <si>
+    <t>艾笛</t>
+  </si>
+  <si>
+    <t>艾地</t>
+  </si>
+  <si>
+    <t>艾娣</t>
+  </si>
+  <si>
+    <t>艾蒂</t>
+  </si>
+  <si>
+    <t>艾东</t>
+  </si>
+  <si>
+    <t>艾东东</t>
+  </si>
+  <si>
+    <t>艾东海</t>
+  </si>
+  <si>
+    <t>艾东梅</t>
+  </si>
+  <si>
+    <t>艾冬</t>
+  </si>
+  <si>
+    <t>艾冬冬</t>
+  </si>
+  <si>
+    <t>艾冬梅</t>
+  </si>
+  <si>
+    <t>艾都</t>
+  </si>
+  <si>
+    <t>艾多</t>
+  </si>
+  <si>
+    <t>pinyin order(According to the sorting rules of the Chinese dictionary)  {Excel}</t>
+  </si>
+  <si>
+    <t>pinyin oreder(no considering polyphone){SqlSort，MSD, HuskySort,TimSort，DualPrivotSort}</t>
+  </si>
+  <si>
+    <t>丁大龙</t>
+  </si>
+  <si>
+    <t>丁大平</t>
+  </si>
+  <si>
+    <t>丁大永</t>
+  </si>
+  <si>
+    <t>丁大成</t>
+  </si>
+  <si>
+    <t>丁大同</t>
+  </si>
+  <si>
+    <t>丁大刚</t>
+  </si>
+  <si>
+    <t>丁大伟</t>
+  </si>
+  <si>
+    <t>丁大华</t>
+  </si>
+  <si>
+    <t>丁大壮</t>
+  </si>
+  <si>
+    <t>丁大庆</t>
+  </si>
+  <si>
+    <t>丁大江</t>
+  </si>
+  <si>
+    <t>丁大兴</t>
+  </si>
+  <si>
+    <t>丁大宇</t>
+  </si>
+  <si>
+    <t>丁大军</t>
+  </si>
+  <si>
+    <t>丁大志</t>
+  </si>
+  <si>
+    <t>丁大钊</t>
+  </si>
+  <si>
+    <t>丁大林</t>
+  </si>
+  <si>
+    <t>丁大杰</t>
+  </si>
+  <si>
+    <t>丁大昌</t>
+  </si>
+  <si>
+    <t>丁大明</t>
+  </si>
+  <si>
+    <t>丁大和</t>
+  </si>
+  <si>
+    <t>丁大宝</t>
+  </si>
+  <si>
+    <t>丁大建</t>
+  </si>
+  <si>
+    <t>丁大春</t>
+  </si>
+  <si>
+    <t>丁大荣</t>
+  </si>
+  <si>
+    <t>丁大威</t>
+  </si>
+  <si>
+    <t>丁大钧</t>
+  </si>
+  <si>
+    <t>丁大俊</t>
+  </si>
+  <si>
+    <t>丁大胜</t>
+  </si>
+  <si>
+    <t>丁大亮</t>
+  </si>
+  <si>
+    <t>丁大洋</t>
+  </si>
+  <si>
+    <t>丁大勇</t>
+  </si>
+  <si>
+    <t>丁大海</t>
+  </si>
+  <si>
+    <t>丁大维</t>
+  </si>
+  <si>
+    <t>丁大森</t>
+  </si>
+  <si>
+    <t>丁大强</t>
+  </si>
+  <si>
+    <t>丁大雷</t>
+  </si>
+  <si>
+    <t>丁大鹏</t>
+  </si>
+  <si>
+    <t>丁大磊</t>
+  </si>
+  <si>
+    <t>丁大德</t>
+  </si>
+  <si>
+    <t>丁大燕</t>
+  </si>
+  <si>
+    <t>丁万云</t>
+  </si>
+  <si>
+    <t>丁万成</t>
+  </si>
+  <si>
+    <t>丁万华</t>
+  </si>
+  <si>
+    <t>丁万寿</t>
+  </si>
+  <si>
+    <t>丁万里</t>
+  </si>
+  <si>
+    <t>丁万良</t>
+  </si>
+  <si>
+    <t>丁万明</t>
+  </si>
+  <si>
+    <t>丁万春</t>
+  </si>
+  <si>
+    <t>丁万涛</t>
+  </si>
+  <si>
+    <t>丁万祥</t>
+  </si>
+  <si>
+    <t>丁万晶</t>
+  </si>
+  <si>
+    <t>丁万强</t>
+  </si>
+  <si>
+    <t>丁山山</t>
+  </si>
+  <si>
+    <t>丁山华</t>
+  </si>
+  <si>
+    <t>丁山河</t>
+  </si>
+  <si>
+    <t>丁山珊</t>
+  </si>
+  <si>
+    <t>丁千柔</t>
+  </si>
+  <si>
+    <t>丁川川</t>
+  </si>
+  <si>
+    <t>丁久红</t>
+  </si>
+  <si>
+    <t>丁久明</t>
+  </si>
+  <si>
+    <t>丁久海</t>
+  </si>
+  <si>
+    <t>丁凡凡</t>
+  </si>
+  <si>
+    <t>丁夕林</t>
+  </si>
+  <si>
+    <t>丁广义</t>
+  </si>
+  <si>
+    <t>丁广龙</t>
+  </si>
+  <si>
+    <t>丁广平</t>
+  </si>
+  <si>
+    <t>丁广生</t>
+  </si>
+  <si>
+    <t>丁广伟</t>
+  </si>
+  <si>
+    <t>丁广华</t>
+  </si>
+  <si>
+    <t>丁广庆</t>
+  </si>
+  <si>
+    <t>丁广宇</t>
+  </si>
+  <si>
+    <t>丁广红</t>
+  </si>
+  <si>
+    <t>丁广兵</t>
+  </si>
+  <si>
+    <t>丁广杰</t>
+  </si>
+  <si>
+    <t>丁广明</t>
+  </si>
+  <si>
+    <t>丁广治</t>
+  </si>
+  <si>
+    <t>丁广学</t>
+  </si>
+  <si>
+    <t>丁广荣</t>
+  </si>
+  <si>
+    <t>丁广泉</t>
+  </si>
+  <si>
+    <t>丁广胜</t>
+  </si>
+  <si>
+    <t>丁广亮</t>
+  </si>
+  <si>
+    <t>丁广涛</t>
+  </si>
+  <si>
+    <t>丁广辉</t>
+  </si>
+  <si>
+    <t>丁广强</t>
+  </si>
+  <si>
+    <t>丁义山</t>
+  </si>
+  <si>
+    <t>丁义方</t>
+  </si>
+  <si>
+    <t>丁义龙</t>
+  </si>
+  <si>
+    <t>丁义平</t>
+  </si>
+  <si>
+    <t>丁义生</t>
+  </si>
+  <si>
+    <t>丁义成</t>
+  </si>
+  <si>
+    <t>丁义华</t>
+  </si>
+  <si>
+    <t>丁义江</t>
+  </si>
+  <si>
+    <t>丁义兴</t>
+  </si>
+  <si>
+    <t>丁义军</t>
+  </si>
+  <si>
+    <t>丁义明</t>
+  </si>
+  <si>
+    <t>丁义涛</t>
+  </si>
+  <si>
+    <t>丁义慧</t>
+  </si>
+  <si>
+    <t>丁之方</t>
+  </si>
+  <si>
+    <t>丁之江</t>
+  </si>
+  <si>
+    <t>丁之章</t>
+  </si>
+  <si>
+    <t>丁卫卫</t>
+  </si>
+  <si>
+    <t>丁卫平</t>
+  </si>
+  <si>
+    <t>丁卫东</t>
+  </si>
+  <si>
+    <t>丁卫民</t>
+  </si>
+  <si>
+    <t>丁卫华</t>
+  </si>
+  <si>
+    <t>丁卫军</t>
+  </si>
+  <si>
+    <t>丁卫红</t>
+  </si>
+  <si>
+    <t>丁卫芳</t>
+  </si>
+  <si>
+    <t>丁卫兵</t>
+  </si>
+  <si>
+    <t>丁卫英</t>
+  </si>
+  <si>
+    <t>丁卫国</t>
+  </si>
+  <si>
+    <t>丁卫明</t>
+  </si>
+  <si>
+    <t>丁卫荣</t>
+  </si>
+  <si>
+    <t>丁卫星</t>
+  </si>
+  <si>
+    <t>丁卫亮</t>
+  </si>
+  <si>
+    <t>丁卫峰</t>
+  </si>
+  <si>
+    <t>丁卫萍</t>
+  </si>
+  <si>
+    <t>丁卫琴</t>
+  </si>
+  <si>
+    <t>丁卫强</t>
+  </si>
+  <si>
+    <t>丁子一</t>
+  </si>
+  <si>
+    <t>丁子人</t>
+  </si>
+  <si>
+    <t>丁子凡</t>
+  </si>
+  <si>
+    <t>丁子文</t>
+  </si>
+  <si>
+    <t>丁子玉</t>
+  </si>
+  <si>
+    <t>丁子龙</t>
+  </si>
+  <si>
+    <t>丁子平</t>
+  </si>
+  <si>
+    <t>丁子扬</t>
+  </si>
+  <si>
+    <t>丁子江</t>
+  </si>
+  <si>
+    <t>丁子阳</t>
+  </si>
+  <si>
+    <t>丁子芮</t>
+  </si>
+  <si>
+    <t>丁子轩</t>
+  </si>
+  <si>
+    <t>丁子君</t>
+  </si>
+  <si>
+    <t>丁子杰</t>
+  </si>
+  <si>
+    <t>丁子明</t>
+  </si>
+  <si>
+    <t>丁子昂</t>
+  </si>
+  <si>
+    <t>丁子怡</t>
+  </si>
+  <si>
+    <t>丁子建</t>
+  </si>
+  <si>
+    <t>丁子玲</t>
+  </si>
+  <si>
+    <t>丁子珊</t>
+  </si>
+  <si>
+    <t>丁子俊</t>
+  </si>
+  <si>
+    <t>丁子洋</t>
+  </si>
+  <si>
+    <t>丁子恒</t>
+  </si>
+  <si>
+    <t>丁子桐</t>
+  </si>
+  <si>
+    <t>丁子峰</t>
+  </si>
+  <si>
+    <t>丁子峻</t>
+  </si>
+  <si>
+    <t>丁子钰</t>
+  </si>
+  <si>
+    <t>丁子倩</t>
+  </si>
+  <si>
+    <t>丁子健</t>
+  </si>
+  <si>
+    <t>丁子高</t>
+  </si>
+  <si>
+    <t>丁子悦</t>
+  </si>
+  <si>
+    <t>丁子娟</t>
+  </si>
+  <si>
+    <t>丁子涵</t>
+  </si>
+  <si>
+    <t>丁子琴</t>
+  </si>
+  <si>
+    <t>丁子琪</t>
+  </si>
+  <si>
+    <t>丁子琦</t>
+  </si>
+  <si>
+    <t>丁子越</t>
+  </si>
+  <si>
+    <t>丁子超</t>
+  </si>
+  <si>
+    <t>丁子惠</t>
+  </si>
+  <si>
+    <t>丁子然</t>
+  </si>
+  <si>
+    <t>丁子强</t>
+  </si>
+  <si>
+    <t>丁子婷</t>
+  </si>
+  <si>
+    <t>丁子睿</t>
+  </si>
+  <si>
+    <t>丁子豪</t>
+  </si>
+  <si>
+    <t>丁子璇</t>
+  </si>
+  <si>
+    <t>丁飞飞</t>
+  </si>
+  <si>
+    <t>丁飞龙</t>
+  </si>
+  <si>
+    <t>丁飞洋</t>
+  </si>
+  <si>
+    <t>丁飞跃</t>
+  </si>
+  <si>
+    <t>丁飞燕</t>
+  </si>
+  <si>
+    <t>丁飞霞</t>
+  </si>
+  <si>
+    <t>丁丰</t>
+  </si>
+  <si>
+    <t>丁丰平</t>
+  </si>
+  <si>
+    <t>丁井文</t>
+  </si>
+  <si>
+    <t>丁开</t>
+  </si>
+  <si>
+    <t>丁开山</t>
+  </si>
+  <si>
+    <t>丁开华</t>
+  </si>
+  <si>
+    <t>丁开杰</t>
+  </si>
+  <si>
+    <t>丁开明</t>
+  </si>
+  <si>
+    <t>丁开艳</t>
+  </si>
+  <si>
+    <t>丁开锋</t>
+  </si>
+  <si>
+    <t>丁天</t>
+  </si>
+  <si>
+    <t>丁天天</t>
+  </si>
+  <si>
+    <t>丁天玉</t>
+  </si>
+  <si>
+    <t>丁天龙</t>
+  </si>
+  <si>
+    <t>丁天平</t>
+  </si>
+  <si>
+    <t>丁天乐</t>
+  </si>
+  <si>
+    <t>丁天立</t>
+  </si>
+  <si>
+    <t>丁天兰</t>
+  </si>
+  <si>
+    <t>丁天成</t>
+  </si>
+  <si>
+    <t>丁天华</t>
+  </si>
+  <si>
+    <t>丁天宇</t>
+  </si>
+  <si>
+    <t>丁天佑</t>
+  </si>
+  <si>
+    <t>丁天英</t>
+  </si>
+  <si>
+    <t>丁天明</t>
+  </si>
+  <si>
+    <t>丁天威</t>
+  </si>
+  <si>
+    <t>丁天保</t>
+  </si>
+  <si>
+    <t>丁天祥</t>
+  </si>
+  <si>
+    <t>丁天琪</t>
+  </si>
+  <si>
+    <t>丁天瑞</t>
+  </si>
+  <si>
+    <t>丁天慧</t>
+  </si>
+  <si>
+    <t>丁元</t>
+  </si>
+  <si>
+    <t>丁元元</t>
+  </si>
+  <si>
+    <t>丁元龙</t>
+  </si>
+  <si>
+    <t>丁元平</t>
+  </si>
+  <si>
+    <t>丁元生</t>
+  </si>
+  <si>
+    <t>丁元吉</t>
+  </si>
+  <si>
+    <t>丁元成</t>
+  </si>
+  <si>
+    <t>丁元刚</t>
+  </si>
+  <si>
+    <t>丁元竹</t>
+  </si>
+  <si>
+    <t>丁元伟</t>
+  </si>
+  <si>
+    <t>丁元华</t>
+  </si>
+  <si>
+    <t>丁元庆</t>
+  </si>
+  <si>
+    <t>丁元江</t>
+  </si>
+  <si>
+    <t>丁元芬</t>
+  </si>
+  <si>
+    <t>丁元芳</t>
+  </si>
+  <si>
+    <t>丁元英</t>
+  </si>
+  <si>
+    <t>丁元林</t>
+  </si>
+  <si>
+    <t>丁元杰</t>
+  </si>
+  <si>
+    <t>丁元昌</t>
+  </si>
+  <si>
+    <t>丁元和</t>
+  </si>
+  <si>
+    <t>丁元波</t>
+  </si>
+  <si>
+    <t>丁元春</t>
+  </si>
+  <si>
+    <t>丁元勋</t>
+  </si>
+  <si>
+    <t>丁元亮</t>
+  </si>
+  <si>
+    <t>丁元峰</t>
+  </si>
+  <si>
+    <t>丁元涛</t>
+  </si>
+  <si>
+    <t>丁元清</t>
+  </si>
+  <si>
+    <t>丁元皓</t>
+  </si>
+  <si>
+    <t>丁元斌</t>
+  </si>
+  <si>
+    <t>丁元善</t>
+  </si>
+  <si>
+    <t>丁元强</t>
+  </si>
+  <si>
+    <t>丁元新</t>
+  </si>
+  <si>
+    <t>丁韦</t>
+  </si>
+  <si>
+    <t>丁云</t>
+  </si>
+  <si>
+    <t>丁云山</t>
+  </si>
+  <si>
+    <t>丁云川</t>
+  </si>
+  <si>
+    <t>丁云飞</t>
+  </si>
+  <si>
+    <t>丁云云</t>
+  </si>
+  <si>
+    <t>丁云凤</t>
+  </si>
+  <si>
+    <t>丁云龙</t>
+  </si>
+  <si>
+    <t>丁云平</t>
+  </si>
+  <si>
+    <t>丁云东</t>
+  </si>
+  <si>
+    <t>丁云兰</t>
+  </si>
+  <si>
+    <t>丁云华</t>
+  </si>
+  <si>
+    <t>丁云红</t>
+  </si>
+  <si>
+    <t>丁云志</t>
+  </si>
+  <si>
+    <t>丁云花</t>
+  </si>
+  <si>
+    <t>丁云芳</t>
+  </si>
+  <si>
+    <t>丁云丽</t>
+  </si>
+  <si>
+    <t>丁云青</t>
+  </si>
+  <si>
+    <t>丁云林</t>
+  </si>
+  <si>
+    <t>丁云杰</t>
+  </si>
+  <si>
+    <t>丁云凯</t>
+  </si>
+  <si>
+    <t>丁云波</t>
+  </si>
+  <si>
+    <t>丁云玲</t>
+  </si>
+  <si>
+    <t>丁云秋</t>
+  </si>
+  <si>
+    <t>丁云亮</t>
+  </si>
+  <si>
+    <t>丁云勇</t>
+  </si>
+  <si>
+    <t>丁云峰</t>
+  </si>
+  <si>
+    <t>丁云高</t>
+  </si>
+  <si>
+    <t>丁云涛</t>
+  </si>
+  <si>
+    <t>丁云海</t>
+  </si>
+  <si>
+    <t>丁云祥</t>
+  </si>
+  <si>
+    <t>丁云娟</t>
+  </si>
+  <si>
+    <t>丁云萍</t>
+  </si>
+  <si>
+    <t>丁云梅</t>
+  </si>
+  <si>
+    <t>丁云彪</t>
+  </si>
+  <si>
+    <t>丁云清</t>
+  </si>
+  <si>
+    <t>丁云超</t>
+  </si>
+  <si>
+    <t>丁云婷</t>
+  </si>
+  <si>
+    <t>丁云鹏</t>
+  </si>
+  <si>
+    <t>丁云霄</t>
+  </si>
+  <si>
+    <t>丁云鹤</t>
+  </si>
+  <si>
+    <t>丁云霞</t>
+  </si>
+  <si>
+    <t>丁艺</t>
+  </si>
+  <si>
+    <t>丁艺伟</t>
+  </si>
+  <si>
+    <t>丁木</t>
+  </si>
+  <si>
+    <t>丁木子</t>
+  </si>
+  <si>
+    <t>丁木村</t>
+  </si>
+  <si>
+    <t>丁木林</t>
+  </si>
+  <si>
+    <t>丁木树</t>
+  </si>
+  <si>
+    <t>丁五</t>
+  </si>
+  <si>
+    <t>丁太升</t>
+  </si>
+  <si>
+    <t>丁太平</t>
+  </si>
+  <si>
+    <t>丁太华</t>
+  </si>
+  <si>
+    <t>丁太阳</t>
+  </si>
+  <si>
+    <t>丁太环</t>
+  </si>
+  <si>
+    <t>丁历</t>
+  </si>
+  <si>
+    <t>丁友</t>
+  </si>
+  <si>
+    <t>丁友才</t>
+  </si>
+  <si>
+    <t>丁友平</t>
+  </si>
+  <si>
+    <t>丁友生</t>
+  </si>
+  <si>
+    <t>丁友兰</t>
+  </si>
+  <si>
+    <t>丁友发</t>
+  </si>
+  <si>
+    <t>丁友成</t>
+  </si>
+  <si>
+    <t>丁友刚</t>
+  </si>
+  <si>
+    <t>丁友华</t>
+  </si>
+  <si>
+    <t>丁友军</t>
+  </si>
+  <si>
+    <t>丁友兵</t>
+  </si>
+  <si>
+    <t>丁友昌</t>
+  </si>
+  <si>
+    <t>丁友明</t>
+  </si>
+  <si>
+    <t>丁友珍</t>
+  </si>
+  <si>
+    <t>丁友泉</t>
+  </si>
+  <si>
+    <t>丁友亮</t>
+  </si>
+  <si>
+    <t>丁友海</t>
+  </si>
+  <si>
+    <t>丁巨</t>
+  </si>
+  <si>
+    <t>丁戈</t>
+  </si>
+  <si>
+    <t>丁少飞</t>
+  </si>
+  <si>
+    <t>丁少云</t>
+  </si>
+  <si>
+    <t>丁少丹</t>
+  </si>
+  <si>
+    <t>丁少文</t>
+  </si>
+  <si>
+    <t>丁少玉</t>
+  </si>
+  <si>
+    <t>丁少龙</t>
+  </si>
+  <si>
+    <t>丁少平</t>
+  </si>
+  <si>
+    <t>丁少东</t>
+  </si>
+  <si>
+    <t>丁少臣</t>
+  </si>
+  <si>
+    <t>丁少成</t>
+  </si>
+  <si>
+    <t>丁少刚</t>
+  </si>
+  <si>
+    <t>丁少伟</t>
+  </si>
+  <si>
+    <t>丁少伦</t>
+  </si>
+  <si>
+    <t>丁少华</t>
+  </si>
+  <si>
+    <t>丁少江</t>
+  </si>
+  <si>
+    <t>丁少军</t>
+  </si>
+  <si>
+    <t>丁少阳</t>
+  </si>
+  <si>
+    <t>丁少红</t>
+  </si>
+  <si>
+    <t>丁少芳</t>
+  </si>
+  <si>
+    <t>丁少丽</t>
+  </si>
+  <si>
+    <t>丁少兵</t>
+  </si>
+  <si>
+    <t>丁少君</t>
+  </si>
+  <si>
+    <t>丁少纯</t>
+  </si>
+  <si>
+    <t>丁少武</t>
+  </si>
+  <si>
+    <t>丁少青</t>
+  </si>
+  <si>
+    <t>丁少英</t>
+  </si>
+  <si>
+    <t>丁少林</t>
+  </si>
+  <si>
+    <t>丁少杰</t>
+  </si>
+  <si>
+    <t>丁少明</t>
+  </si>
+  <si>
+    <t>丁少波</t>
+  </si>
+  <si>
+    <t>丁少春</t>
+  </si>
+  <si>
+    <t>丁少珍</t>
+  </si>
+  <si>
+    <t>丁少荣</t>
+  </si>
+  <si>
+    <t>丁少柏</t>
+  </si>
+  <si>
+    <t>丁少俊</t>
+  </si>
+  <si>
+    <t>丁少恒</t>
+  </si>
+  <si>
+    <t>丁少勇</t>
+  </si>
+  <si>
+    <t>丁少峰</t>
+  </si>
+  <si>
+    <t>丁少卿</t>
+  </si>
+  <si>
+    <t>丁少娟</t>
+  </si>
+  <si>
+    <t>丁少梅</t>
+  </si>
+  <si>
+    <t>丁少敏</t>
+  </si>
+  <si>
+    <t>丁少康</t>
+  </si>
+  <si>
+    <t>丁少清</t>
+  </si>
+  <si>
+    <t>丁少琴</t>
+  </si>
+  <si>
+    <t>丁少博</t>
+  </si>
+  <si>
+    <t>丁少雄</t>
+  </si>
+  <si>
+    <t>丁少辉</t>
+  </si>
+  <si>
+    <t>丁少锋</t>
+  </si>
+  <si>
+    <t>丁少斌</t>
+  </si>
+  <si>
+    <t>丁少强</t>
+  </si>
+  <si>
+    <t>丁少楠</t>
+  </si>
+  <si>
+    <t>丁少雷</t>
+  </si>
+  <si>
+    <t>丁少鹏</t>
+  </si>
+  <si>
+    <t>丁少磊</t>
+  </si>
+  <si>
+    <t>丁少霞</t>
+  </si>
+  <si>
+    <t>丁日华</t>
+  </si>
+  <si>
+    <t>丁日红</t>
+  </si>
+  <si>
+    <t>丁日初</t>
+  </si>
+  <si>
+    <t>丁日昌</t>
+  </si>
+  <si>
+    <t>丁日明</t>
+  </si>
+  <si>
+    <t>丁日佳</t>
+  </si>
+  <si>
+    <t>丁日斌</t>
+  </si>
+  <si>
+    <t>丁日新</t>
+  </si>
+  <si>
+    <t>丁中</t>
+  </si>
+  <si>
+    <t>丁中一</t>
+  </si>
+  <si>
+    <t>丁中元</t>
+  </si>
+  <si>
+    <t>丁中平</t>
+  </si>
+  <si>
+    <t>丁中伟</t>
+  </si>
+  <si>
+    <t>丁中华</t>
+  </si>
+  <si>
+    <t>丁中江</t>
+  </si>
+  <si>
+    <t>丁中建</t>
+  </si>
+  <si>
+    <t>丁中秋</t>
+  </si>
+  <si>
+    <t>丁中涛</t>
+  </si>
+  <si>
+    <t>丁中智</t>
+  </si>
+  <si>
+    <t>丁水</t>
+  </si>
+  <si>
+    <t>丁水木</t>
+  </si>
+  <si>
+    <t>丁水仙</t>
+  </si>
+  <si>
+    <t>丁水汀</t>
+  </si>
+  <si>
+    <t>丁水华</t>
+  </si>
+  <si>
+    <t>丁水芳</t>
+  </si>
+  <si>
+    <t>丁水英</t>
+  </si>
+  <si>
+    <t>丁水旺</t>
+  </si>
+  <si>
+    <t>丁水明</t>
+  </si>
+  <si>
+    <t>丁水波</t>
+  </si>
+  <si>
+    <t>丁水泉</t>
+  </si>
+  <si>
+    <t>丁水根</t>
+  </si>
+  <si>
+    <t>丁水娟</t>
+  </si>
+  <si>
+    <t>丁水琴</t>
+  </si>
+  <si>
+    <t>丁水德</t>
+  </si>
+  <si>
+    <t>丁贝</t>
+  </si>
+  <si>
+    <t>丁贝贝</t>
   </si>
 </sst>
 </file>
@@ -1007,10 +3405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28386F7D-A4DD-437A-8F57-0734A7416ACE}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A81" sqref="A80:A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1022,10 +3420,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>601</v>
       </c>
       <c r="B1" t="s">
-        <v>201</v>
+        <v>602</v>
       </c>
       <c r="C1" t="s">
         <v>200</v>
@@ -2131,7 +4529,4410 @@
         <v>199</v>
       </c>
     </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>201</v>
+      </c>
+      <c r="B102" t="s">
+        <v>201</v>
+      </c>
+      <c r="C102" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" t="s">
+        <v>202</v>
+      </c>
+      <c r="C103" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>203</v>
+      </c>
+      <c r="B104" t="s">
+        <v>203</v>
+      </c>
+      <c r="C104" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>204</v>
+      </c>
+      <c r="B105" t="s">
+        <v>204</v>
+      </c>
+      <c r="C105" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>205</v>
+      </c>
+      <c r="B106" t="s">
+        <v>205</v>
+      </c>
+      <c r="C106" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>206</v>
+      </c>
+      <c r="B107" t="s">
+        <v>206</v>
+      </c>
+      <c r="C107" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>207</v>
+      </c>
+      <c r="B108" t="s">
+        <v>207</v>
+      </c>
+      <c r="C108" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>208</v>
+      </c>
+      <c r="B109" t="s">
+        <v>208</v>
+      </c>
+      <c r="C109" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>209</v>
+      </c>
+      <c r="B110" t="s">
+        <v>209</v>
+      </c>
+      <c r="C110" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>210</v>
+      </c>
+      <c r="B111" t="s">
+        <v>210</v>
+      </c>
+      <c r="C111" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>211</v>
+      </c>
+      <c r="B112" t="s">
+        <v>211</v>
+      </c>
+      <c r="C112" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>212</v>
+      </c>
+      <c r="B113" t="s">
+        <v>212</v>
+      </c>
+      <c r="C113" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>213</v>
+      </c>
+      <c r="B114" t="s">
+        <v>213</v>
+      </c>
+      <c r="C114" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>214</v>
+      </c>
+      <c r="B115" t="s">
+        <v>214</v>
+      </c>
+      <c r="C115" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>215</v>
+      </c>
+      <c r="B116" t="s">
+        <v>215</v>
+      </c>
+      <c r="C116" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>216</v>
+      </c>
+      <c r="B117" t="s">
+        <v>216</v>
+      </c>
+      <c r="C117" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>217</v>
+      </c>
+      <c r="B118" t="s">
+        <v>217</v>
+      </c>
+      <c r="C118" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>218</v>
+      </c>
+      <c r="B119" t="s">
+        <v>218</v>
+      </c>
+      <c r="C119" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>219</v>
+      </c>
+      <c r="B120" t="s">
+        <v>219</v>
+      </c>
+      <c r="C120" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>220</v>
+      </c>
+      <c r="B121" t="s">
+        <v>220</v>
+      </c>
+      <c r="C121" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>221</v>
+      </c>
+      <c r="B122" t="s">
+        <v>221</v>
+      </c>
+      <c r="C122" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>222</v>
+      </c>
+      <c r="B123" t="s">
+        <v>222</v>
+      </c>
+      <c r="C123" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>223</v>
+      </c>
+      <c r="B124" t="s">
+        <v>223</v>
+      </c>
+      <c r="C124" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>224</v>
+      </c>
+      <c r="B125" t="s">
+        <v>224</v>
+      </c>
+      <c r="C125" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>225</v>
+      </c>
+      <c r="B126" t="s">
+        <v>225</v>
+      </c>
+      <c r="C126" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>226</v>
+      </c>
+      <c r="B127" t="s">
+        <v>226</v>
+      </c>
+      <c r="C127" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>227</v>
+      </c>
+      <c r="B128" t="s">
+        <v>227</v>
+      </c>
+      <c r="C128" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>228</v>
+      </c>
+      <c r="B129" t="s">
+        <v>228</v>
+      </c>
+      <c r="C129" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>229</v>
+      </c>
+      <c r="B130" t="s">
+        <v>229</v>
+      </c>
+      <c r="C130" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>230</v>
+      </c>
+      <c r="B131" t="s">
+        <v>230</v>
+      </c>
+      <c r="C131" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>231</v>
+      </c>
+      <c r="B132" t="s">
+        <v>231</v>
+      </c>
+      <c r="C132" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>232</v>
+      </c>
+      <c r="B133" t="s">
+        <v>232</v>
+      </c>
+      <c r="C133" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>233</v>
+      </c>
+      <c r="B134" t="s">
+        <v>233</v>
+      </c>
+      <c r="C134" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>234</v>
+      </c>
+      <c r="B135" t="s">
+        <v>234</v>
+      </c>
+      <c r="C135" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>235</v>
+      </c>
+      <c r="B136" t="s">
+        <v>235</v>
+      </c>
+      <c r="C136" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>236</v>
+      </c>
+      <c r="B137" t="s">
+        <v>236</v>
+      </c>
+      <c r="C137" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>237</v>
+      </c>
+      <c r="B138" t="s">
+        <v>237</v>
+      </c>
+      <c r="C138" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>238</v>
+      </c>
+      <c r="B139" t="s">
+        <v>238</v>
+      </c>
+      <c r="C139" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>239</v>
+      </c>
+      <c r="B140" t="s">
+        <v>239</v>
+      </c>
+      <c r="C140" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>240</v>
+      </c>
+      <c r="B141" t="s">
+        <v>240</v>
+      </c>
+      <c r="C141" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>241</v>
+      </c>
+      <c r="B142" t="s">
+        <v>241</v>
+      </c>
+      <c r="C142" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>242</v>
+      </c>
+      <c r="B143" t="s">
+        <v>242</v>
+      </c>
+      <c r="C143" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>243</v>
+      </c>
+      <c r="B144" t="s">
+        <v>243</v>
+      </c>
+      <c r="C144" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>244</v>
+      </c>
+      <c r="B145" t="s">
+        <v>244</v>
+      </c>
+      <c r="C145" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>245</v>
+      </c>
+      <c r="B146" t="s">
+        <v>245</v>
+      </c>
+      <c r="C146" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>246</v>
+      </c>
+      <c r="B147" t="s">
+        <v>246</v>
+      </c>
+      <c r="C147" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>247</v>
+      </c>
+      <c r="B148" t="s">
+        <v>247</v>
+      </c>
+      <c r="C148" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>248</v>
+      </c>
+      <c r="B149" t="s">
+        <v>248</v>
+      </c>
+      <c r="C149" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>249</v>
+      </c>
+      <c r="B150" t="s">
+        <v>249</v>
+      </c>
+      <c r="C150" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>250</v>
+      </c>
+      <c r="B151" t="s">
+        <v>250</v>
+      </c>
+      <c r="C151" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>251</v>
+      </c>
+      <c r="B152" t="s">
+        <v>251</v>
+      </c>
+      <c r="C152" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>252</v>
+      </c>
+      <c r="B153" t="s">
+        <v>252</v>
+      </c>
+      <c r="C153" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>253</v>
+      </c>
+      <c r="B154" t="s">
+        <v>253</v>
+      </c>
+      <c r="C154" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>254</v>
+      </c>
+      <c r="B155" t="s">
+        <v>254</v>
+      </c>
+      <c r="C155" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>255</v>
+      </c>
+      <c r="B156" t="s">
+        <v>255</v>
+      </c>
+      <c r="C156" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>256</v>
+      </c>
+      <c r="B157" t="s">
+        <v>256</v>
+      </c>
+      <c r="C157" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>257</v>
+      </c>
+      <c r="B158" t="s">
+        <v>257</v>
+      </c>
+      <c r="C158" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>258</v>
+      </c>
+      <c r="B159" t="s">
+        <v>258</v>
+      </c>
+      <c r="C159" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>259</v>
+      </c>
+      <c r="B160" t="s">
+        <v>259</v>
+      </c>
+      <c r="C160" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>260</v>
+      </c>
+      <c r="B161" t="s">
+        <v>260</v>
+      </c>
+      <c r="C161" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>261</v>
+      </c>
+      <c r="B162" t="s">
+        <v>261</v>
+      </c>
+      <c r="C162" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>262</v>
+      </c>
+      <c r="B163" t="s">
+        <v>262</v>
+      </c>
+      <c r="C163" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>263</v>
+      </c>
+      <c r="B164" t="s">
+        <v>263</v>
+      </c>
+      <c r="C164" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>264</v>
+      </c>
+      <c r="B165" t="s">
+        <v>264</v>
+      </c>
+      <c r="C165" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>265</v>
+      </c>
+      <c r="B166" t="s">
+        <v>265</v>
+      </c>
+      <c r="C166" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>266</v>
+      </c>
+      <c r="B167" t="s">
+        <v>266</v>
+      </c>
+      <c r="C167" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>267</v>
+      </c>
+      <c r="B168" t="s">
+        <v>267</v>
+      </c>
+      <c r="C168" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>268</v>
+      </c>
+      <c r="B169" t="s">
+        <v>268</v>
+      </c>
+      <c r="C169" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>269</v>
+      </c>
+      <c r="B170" t="s">
+        <v>269</v>
+      </c>
+      <c r="C170" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>270</v>
+      </c>
+      <c r="B171" t="s">
+        <v>270</v>
+      </c>
+      <c r="C171" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>271</v>
+      </c>
+      <c r="B172" t="s">
+        <v>271</v>
+      </c>
+      <c r="C172" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>272</v>
+      </c>
+      <c r="B173" t="s">
+        <v>272</v>
+      </c>
+      <c r="C173" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>273</v>
+      </c>
+      <c r="B174" t="s">
+        <v>273</v>
+      </c>
+      <c r="C174" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>274</v>
+      </c>
+      <c r="B175" t="s">
+        <v>274</v>
+      </c>
+      <c r="C175" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>275</v>
+      </c>
+      <c r="B176" t="s">
+        <v>275</v>
+      </c>
+      <c r="C176" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>276</v>
+      </c>
+      <c r="B177" t="s">
+        <v>276</v>
+      </c>
+      <c r="C177" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>277</v>
+      </c>
+      <c r="B178" t="s">
+        <v>277</v>
+      </c>
+      <c r="C178" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>278</v>
+      </c>
+      <c r="B179" t="s">
+        <v>278</v>
+      </c>
+      <c r="C179" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>279</v>
+      </c>
+      <c r="B180" t="s">
+        <v>279</v>
+      </c>
+      <c r="C180" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>280</v>
+      </c>
+      <c r="B181" t="s">
+        <v>280</v>
+      </c>
+      <c r="C181" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>281</v>
+      </c>
+      <c r="B182" t="s">
+        <v>281</v>
+      </c>
+      <c r="C182" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>282</v>
+      </c>
+      <c r="B183" t="s">
+        <v>282</v>
+      </c>
+      <c r="C183" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>283</v>
+      </c>
+      <c r="B184" t="s">
+        <v>283</v>
+      </c>
+      <c r="C184" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>284</v>
+      </c>
+      <c r="B185" t="s">
+        <v>284</v>
+      </c>
+      <c r="C185" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>285</v>
+      </c>
+      <c r="B186" t="s">
+        <v>285</v>
+      </c>
+      <c r="C186" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>286</v>
+      </c>
+      <c r="B187" t="s">
+        <v>286</v>
+      </c>
+      <c r="C187" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>287</v>
+      </c>
+      <c r="B188" t="s">
+        <v>287</v>
+      </c>
+      <c r="C188" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>288</v>
+      </c>
+      <c r="B189" t="s">
+        <v>288</v>
+      </c>
+      <c r="C189" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>289</v>
+      </c>
+      <c r="B190" t="s">
+        <v>289</v>
+      </c>
+      <c r="C190" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>290</v>
+      </c>
+      <c r="B191" t="s">
+        <v>290</v>
+      </c>
+      <c r="C191" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>291</v>
+      </c>
+      <c r="B192" t="s">
+        <v>291</v>
+      </c>
+      <c r="C192" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>292</v>
+      </c>
+      <c r="B193" t="s">
+        <v>292</v>
+      </c>
+      <c r="C193" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>293</v>
+      </c>
+      <c r="B194" t="s">
+        <v>293</v>
+      </c>
+      <c r="C194" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>294</v>
+      </c>
+      <c r="B195" t="s">
+        <v>294</v>
+      </c>
+      <c r="C195" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>295</v>
+      </c>
+      <c r="B196" t="s">
+        <v>295</v>
+      </c>
+      <c r="C196" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>296</v>
+      </c>
+      <c r="B197" t="s">
+        <v>296</v>
+      </c>
+      <c r="C197" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>297</v>
+      </c>
+      <c r="B198" t="s">
+        <v>297</v>
+      </c>
+      <c r="C198" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>298</v>
+      </c>
+      <c r="B199" t="s">
+        <v>298</v>
+      </c>
+      <c r="C199" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>299</v>
+      </c>
+      <c r="B200" t="s">
+        <v>299</v>
+      </c>
+      <c r="C200" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>300</v>
+      </c>
+      <c r="B201" t="s">
+        <v>300</v>
+      </c>
+      <c r="C201" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>301</v>
+      </c>
+      <c r="B202" t="s">
+        <v>301</v>
+      </c>
+      <c r="C202" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>302</v>
+      </c>
+      <c r="B203" t="s">
+        <v>302</v>
+      </c>
+      <c r="C203" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>303</v>
+      </c>
+      <c r="B204" t="s">
+        <v>303</v>
+      </c>
+      <c r="C204" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>304</v>
+      </c>
+      <c r="B205" t="s">
+        <v>304</v>
+      </c>
+      <c r="C205" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>305</v>
+      </c>
+      <c r="B206" t="s">
+        <v>305</v>
+      </c>
+      <c r="C206" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>306</v>
+      </c>
+      <c r="B207" t="s">
+        <v>306</v>
+      </c>
+      <c r="C207" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>307</v>
+      </c>
+      <c r="B208" t="s">
+        <v>307</v>
+      </c>
+      <c r="C208" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>308</v>
+      </c>
+      <c r="B209" t="s">
+        <v>308</v>
+      </c>
+      <c r="C209" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>309</v>
+      </c>
+      <c r="B210" t="s">
+        <v>309</v>
+      </c>
+      <c r="C210" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>310</v>
+      </c>
+      <c r="B211" t="s">
+        <v>310</v>
+      </c>
+      <c r="C211" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>311</v>
+      </c>
+      <c r="B212" t="s">
+        <v>311</v>
+      </c>
+      <c r="C212" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>312</v>
+      </c>
+      <c r="B213" t="s">
+        <v>312</v>
+      </c>
+      <c r="C213" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>313</v>
+      </c>
+      <c r="B214" t="s">
+        <v>313</v>
+      </c>
+      <c r="C214" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>314</v>
+      </c>
+      <c r="B215" t="s">
+        <v>314</v>
+      </c>
+      <c r="C215" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>315</v>
+      </c>
+      <c r="B216" t="s">
+        <v>315</v>
+      </c>
+      <c r="C216" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>316</v>
+      </c>
+      <c r="B217" t="s">
+        <v>316</v>
+      </c>
+      <c r="C217" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>317</v>
+      </c>
+      <c r="B218" t="s">
+        <v>317</v>
+      </c>
+      <c r="C218" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>318</v>
+      </c>
+      <c r="B219" t="s">
+        <v>318</v>
+      </c>
+      <c r="C219" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>319</v>
+      </c>
+      <c r="B220" t="s">
+        <v>319</v>
+      </c>
+      <c r="C220" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>320</v>
+      </c>
+      <c r="B221" t="s">
+        <v>320</v>
+      </c>
+      <c r="C221" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>321</v>
+      </c>
+      <c r="B222" t="s">
+        <v>321</v>
+      </c>
+      <c r="C222" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>322</v>
+      </c>
+      <c r="B223" t="s">
+        <v>322</v>
+      </c>
+      <c r="C223" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>323</v>
+      </c>
+      <c r="B224" t="s">
+        <v>323</v>
+      </c>
+      <c r="C224" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>324</v>
+      </c>
+      <c r="B225" t="s">
+        <v>324</v>
+      </c>
+      <c r="C225" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>325</v>
+      </c>
+      <c r="B226" t="s">
+        <v>325</v>
+      </c>
+      <c r="C226" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>326</v>
+      </c>
+      <c r="B227" t="s">
+        <v>326</v>
+      </c>
+      <c r="C227" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>327</v>
+      </c>
+      <c r="B228" t="s">
+        <v>327</v>
+      </c>
+      <c r="C228" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>328</v>
+      </c>
+      <c r="B229" t="s">
+        <v>328</v>
+      </c>
+      <c r="C229" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>329</v>
+      </c>
+      <c r="B230" t="s">
+        <v>329</v>
+      </c>
+      <c r="C230" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>330</v>
+      </c>
+      <c r="B231" t="s">
+        <v>330</v>
+      </c>
+      <c r="C231" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>331</v>
+      </c>
+      <c r="B232" t="s">
+        <v>331</v>
+      </c>
+      <c r="C232" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>332</v>
+      </c>
+      <c r="B233" t="s">
+        <v>332</v>
+      </c>
+      <c r="C233" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>333</v>
+      </c>
+      <c r="B234" t="s">
+        <v>333</v>
+      </c>
+      <c r="C234" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>334</v>
+      </c>
+      <c r="B235" t="s">
+        <v>334</v>
+      </c>
+      <c r="C235" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>335</v>
+      </c>
+      <c r="B236" t="s">
+        <v>335</v>
+      </c>
+      <c r="C236" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>336</v>
+      </c>
+      <c r="B237" t="s">
+        <v>336</v>
+      </c>
+      <c r="C237" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>337</v>
+      </c>
+      <c r="B238" t="s">
+        <v>337</v>
+      </c>
+      <c r="C238" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>338</v>
+      </c>
+      <c r="B239" t="s">
+        <v>338</v>
+      </c>
+      <c r="C239" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>339</v>
+      </c>
+      <c r="B240" t="s">
+        <v>339</v>
+      </c>
+      <c r="C240" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>340</v>
+      </c>
+      <c r="B241" t="s">
+        <v>340</v>
+      </c>
+      <c r="C241" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>341</v>
+      </c>
+      <c r="B242" t="s">
+        <v>341</v>
+      </c>
+      <c r="C242" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>342</v>
+      </c>
+      <c r="B243" t="s">
+        <v>342</v>
+      </c>
+      <c r="C243" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>343</v>
+      </c>
+      <c r="B244" t="s">
+        <v>343</v>
+      </c>
+      <c r="C244" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>344</v>
+      </c>
+      <c r="B245" t="s">
+        <v>344</v>
+      </c>
+      <c r="C245" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>345</v>
+      </c>
+      <c r="B246" t="s">
+        <v>345</v>
+      </c>
+      <c r="C246" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>346</v>
+      </c>
+      <c r="B247" t="s">
+        <v>346</v>
+      </c>
+      <c r="C247" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>347</v>
+      </c>
+      <c r="B248" t="s">
+        <v>347</v>
+      </c>
+      <c r="C248" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>348</v>
+      </c>
+      <c r="B249" t="s">
+        <v>348</v>
+      </c>
+      <c r="C249" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>349</v>
+      </c>
+      <c r="B250" t="s">
+        <v>349</v>
+      </c>
+      <c r="C250" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>350</v>
+      </c>
+      <c r="B251" t="s">
+        <v>350</v>
+      </c>
+      <c r="C251" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>351</v>
+      </c>
+      <c r="B252" t="s">
+        <v>351</v>
+      </c>
+      <c r="C252" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>352</v>
+      </c>
+      <c r="B253" t="s">
+        <v>352</v>
+      </c>
+      <c r="C253" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>353</v>
+      </c>
+      <c r="B254" t="s">
+        <v>353</v>
+      </c>
+      <c r="C254" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>354</v>
+      </c>
+      <c r="B255" t="s">
+        <v>354</v>
+      </c>
+      <c r="C255" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>355</v>
+      </c>
+      <c r="B256" t="s">
+        <v>355</v>
+      </c>
+      <c r="C256" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>356</v>
+      </c>
+      <c r="B257" t="s">
+        <v>356</v>
+      </c>
+      <c r="C257" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>357</v>
+      </c>
+      <c r="B258" t="s">
+        <v>357</v>
+      </c>
+      <c r="C258" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>358</v>
+      </c>
+      <c r="B259" t="s">
+        <v>358</v>
+      </c>
+      <c r="C259" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>359</v>
+      </c>
+      <c r="B260" t="s">
+        <v>359</v>
+      </c>
+      <c r="C260" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>360</v>
+      </c>
+      <c r="B261" t="s">
+        <v>360</v>
+      </c>
+      <c r="C261" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>361</v>
+      </c>
+      <c r="B262" t="s">
+        <v>361</v>
+      </c>
+      <c r="C262" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>362</v>
+      </c>
+      <c r="B263" t="s">
+        <v>362</v>
+      </c>
+      <c r="C263" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>363</v>
+      </c>
+      <c r="B264" t="s">
+        <v>363</v>
+      </c>
+      <c r="C264" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>364</v>
+      </c>
+      <c r="B265" t="s">
+        <v>364</v>
+      </c>
+      <c r="C265" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>365</v>
+      </c>
+      <c r="B266" t="s">
+        <v>365</v>
+      </c>
+      <c r="C266" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>366</v>
+      </c>
+      <c r="B267" t="s">
+        <v>366</v>
+      </c>
+      <c r="C267" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>367</v>
+      </c>
+      <c r="B268" t="s">
+        <v>367</v>
+      </c>
+      <c r="C268" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>368</v>
+      </c>
+      <c r="B269" t="s">
+        <v>368</v>
+      </c>
+      <c r="C269" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>369</v>
+      </c>
+      <c r="B270" t="s">
+        <v>369</v>
+      </c>
+      <c r="C270" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>370</v>
+      </c>
+      <c r="B271" t="s">
+        <v>370</v>
+      </c>
+      <c r="C271" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>371</v>
+      </c>
+      <c r="B272" t="s">
+        <v>371</v>
+      </c>
+      <c r="C272" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>372</v>
+      </c>
+      <c r="B273" t="s">
+        <v>372</v>
+      </c>
+      <c r="C273" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>373</v>
+      </c>
+      <c r="B274" t="s">
+        <v>373</v>
+      </c>
+      <c r="C274" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>374</v>
+      </c>
+      <c r="B275" t="s">
+        <v>374</v>
+      </c>
+      <c r="C275" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>375</v>
+      </c>
+      <c r="B276" t="s">
+        <v>375</v>
+      </c>
+      <c r="C276" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>376</v>
+      </c>
+      <c r="B277" t="s">
+        <v>376</v>
+      </c>
+      <c r="C277" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>377</v>
+      </c>
+      <c r="B278" t="s">
+        <v>377</v>
+      </c>
+      <c r="C278" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>378</v>
+      </c>
+      <c r="B279" t="s">
+        <v>378</v>
+      </c>
+      <c r="C279" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>379</v>
+      </c>
+      <c r="B280" t="s">
+        <v>379</v>
+      </c>
+      <c r="C280" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>380</v>
+      </c>
+      <c r="B281" t="s">
+        <v>380</v>
+      </c>
+      <c r="C281" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>381</v>
+      </c>
+      <c r="B282" t="s">
+        <v>381</v>
+      </c>
+      <c r="C282" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>382</v>
+      </c>
+      <c r="B283" t="s">
+        <v>382</v>
+      </c>
+      <c r="C283" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>383</v>
+      </c>
+      <c r="B284" t="s">
+        <v>383</v>
+      </c>
+      <c r="C284" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>384</v>
+      </c>
+      <c r="B285" t="s">
+        <v>384</v>
+      </c>
+      <c r="C285" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>385</v>
+      </c>
+      <c r="B286" t="s">
+        <v>385</v>
+      </c>
+      <c r="C286" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>386</v>
+      </c>
+      <c r="B287" t="s">
+        <v>386</v>
+      </c>
+      <c r="C287" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>387</v>
+      </c>
+      <c r="B288" t="s">
+        <v>387</v>
+      </c>
+      <c r="C288" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>388</v>
+      </c>
+      <c r="B289" t="s">
+        <v>388</v>
+      </c>
+      <c r="C289" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>389</v>
+      </c>
+      <c r="B290" t="s">
+        <v>389</v>
+      </c>
+      <c r="C290" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>390</v>
+      </c>
+      <c r="B291" t="s">
+        <v>390</v>
+      </c>
+      <c r="C291" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>391</v>
+      </c>
+      <c r="B292" t="s">
+        <v>391</v>
+      </c>
+      <c r="C292" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>392</v>
+      </c>
+      <c r="B293" t="s">
+        <v>392</v>
+      </c>
+      <c r="C293" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>393</v>
+      </c>
+      <c r="B294" t="s">
+        <v>393</v>
+      </c>
+      <c r="C294" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>394</v>
+      </c>
+      <c r="B295" t="s">
+        <v>394</v>
+      </c>
+      <c r="C295" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>395</v>
+      </c>
+      <c r="B296" t="s">
+        <v>395</v>
+      </c>
+      <c r="C296" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>396</v>
+      </c>
+      <c r="B297" t="s">
+        <v>396</v>
+      </c>
+      <c r="C297" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>397</v>
+      </c>
+      <c r="B298" t="s">
+        <v>397</v>
+      </c>
+      <c r="C298" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>398</v>
+      </c>
+      <c r="B299" t="s">
+        <v>398</v>
+      </c>
+      <c r="C299" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>399</v>
+      </c>
+      <c r="B300" t="s">
+        <v>399</v>
+      </c>
+      <c r="C300" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>400</v>
+      </c>
+      <c r="B301" t="s">
+        <v>400</v>
+      </c>
+      <c r="C301" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>401</v>
+      </c>
+      <c r="B302" t="s">
+        <v>401</v>
+      </c>
+      <c r="C302" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>402</v>
+      </c>
+      <c r="B303" t="s">
+        <v>402</v>
+      </c>
+      <c r="C303" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>403</v>
+      </c>
+      <c r="B304" t="s">
+        <v>403</v>
+      </c>
+      <c r="C304" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>404</v>
+      </c>
+      <c r="B305" t="s">
+        <v>404</v>
+      </c>
+      <c r="C305" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>405</v>
+      </c>
+      <c r="B306" t="s">
+        <v>405</v>
+      </c>
+      <c r="C306" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>406</v>
+      </c>
+      <c r="B307" t="s">
+        <v>406</v>
+      </c>
+      <c r="C307" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>407</v>
+      </c>
+      <c r="B308" t="s">
+        <v>407</v>
+      </c>
+      <c r="C308" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>408</v>
+      </c>
+      <c r="B309" t="s">
+        <v>408</v>
+      </c>
+      <c r="C309" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>409</v>
+      </c>
+      <c r="B310" t="s">
+        <v>409</v>
+      </c>
+      <c r="C310" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>410</v>
+      </c>
+      <c r="B311" t="s">
+        <v>410</v>
+      </c>
+      <c r="C311" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>411</v>
+      </c>
+      <c r="B312" t="s">
+        <v>411</v>
+      </c>
+      <c r="C312" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>412</v>
+      </c>
+      <c r="B313" t="s">
+        <v>412</v>
+      </c>
+      <c r="C313" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>413</v>
+      </c>
+      <c r="B314" t="s">
+        <v>413</v>
+      </c>
+      <c r="C314" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>414</v>
+      </c>
+      <c r="B315" t="s">
+        <v>414</v>
+      </c>
+      <c r="C315" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>415</v>
+      </c>
+      <c r="B316" t="s">
+        <v>415</v>
+      </c>
+      <c r="C316" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>416</v>
+      </c>
+      <c r="B317" t="s">
+        <v>416</v>
+      </c>
+      <c r="C317" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>417</v>
+      </c>
+      <c r="B318" t="s">
+        <v>417</v>
+      </c>
+      <c r="C318" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>418</v>
+      </c>
+      <c r="B319" t="s">
+        <v>418</v>
+      </c>
+      <c r="C319" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>419</v>
+      </c>
+      <c r="B320" t="s">
+        <v>419</v>
+      </c>
+      <c r="C320" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>420</v>
+      </c>
+      <c r="B321" t="s">
+        <v>420</v>
+      </c>
+      <c r="C321" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>421</v>
+      </c>
+      <c r="B322" t="s">
+        <v>421</v>
+      </c>
+      <c r="C322" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>422</v>
+      </c>
+      <c r="B323" t="s">
+        <v>422</v>
+      </c>
+      <c r="C323" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>423</v>
+      </c>
+      <c r="B324" t="s">
+        <v>423</v>
+      </c>
+      <c r="C324" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>424</v>
+      </c>
+      <c r="B325" t="s">
+        <v>424</v>
+      </c>
+      <c r="C325" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>425</v>
+      </c>
+      <c r="B326" t="s">
+        <v>425</v>
+      </c>
+      <c r="C326" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>426</v>
+      </c>
+      <c r="B327" t="s">
+        <v>426</v>
+      </c>
+      <c r="C327" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>427</v>
+      </c>
+      <c r="B328" t="s">
+        <v>427</v>
+      </c>
+      <c r="C328" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>428</v>
+      </c>
+      <c r="B329" t="s">
+        <v>428</v>
+      </c>
+      <c r="C329" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>430</v>
+      </c>
+      <c r="B330" t="s">
+        <v>429</v>
+      </c>
+      <c r="C330" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>429</v>
+      </c>
+      <c r="B331" t="s">
+        <v>430</v>
+      </c>
+      <c r="C331" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>431</v>
+      </c>
+      <c r="B332" t="s">
+        <v>431</v>
+      </c>
+      <c r="C332" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>432</v>
+      </c>
+      <c r="B333" t="s">
+        <v>432</v>
+      </c>
+      <c r="C333" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>433</v>
+      </c>
+      <c r="B334" t="s">
+        <v>433</v>
+      </c>
+      <c r="C334" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>434</v>
+      </c>
+      <c r="B335" t="s">
+        <v>434</v>
+      </c>
+      <c r="C335" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>435</v>
+      </c>
+      <c r="B336" t="s">
+        <v>435</v>
+      </c>
+      <c r="C336" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>436</v>
+      </c>
+      <c r="B337" t="s">
+        <v>436</v>
+      </c>
+      <c r="C337" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>437</v>
+      </c>
+      <c r="B338" t="s">
+        <v>437</v>
+      </c>
+      <c r="C338" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>438</v>
+      </c>
+      <c r="B339" t="s">
+        <v>438</v>
+      </c>
+      <c r="C339" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>439</v>
+      </c>
+      <c r="B340" t="s">
+        <v>439</v>
+      </c>
+      <c r="C340" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>440</v>
+      </c>
+      <c r="B341" t="s">
+        <v>440</v>
+      </c>
+      <c r="C341" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>441</v>
+      </c>
+      <c r="B342" t="s">
+        <v>441</v>
+      </c>
+      <c r="C342" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>442</v>
+      </c>
+      <c r="B343" t="s">
+        <v>442</v>
+      </c>
+      <c r="C343" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>443</v>
+      </c>
+      <c r="B344" t="s">
+        <v>443</v>
+      </c>
+      <c r="C344" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>444</v>
+      </c>
+      <c r="B345" t="s">
+        <v>444</v>
+      </c>
+      <c r="C345" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>445</v>
+      </c>
+      <c r="B346" t="s">
+        <v>445</v>
+      </c>
+      <c r="C346" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>446</v>
+      </c>
+      <c r="B347" t="s">
+        <v>446</v>
+      </c>
+      <c r="C347" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>447</v>
+      </c>
+      <c r="B348" t="s">
+        <v>447</v>
+      </c>
+      <c r="C348" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>448</v>
+      </c>
+      <c r="B349" t="s">
+        <v>448</v>
+      </c>
+      <c r="C349" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>449</v>
+      </c>
+      <c r="B350" t="s">
+        <v>449</v>
+      </c>
+      <c r="C350" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>450</v>
+      </c>
+      <c r="B351" t="s">
+        <v>450</v>
+      </c>
+      <c r="C351" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>451</v>
+      </c>
+      <c r="B352" t="s">
+        <v>451</v>
+      </c>
+      <c r="C352" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>452</v>
+      </c>
+      <c r="B353" t="s">
+        <v>452</v>
+      </c>
+      <c r="C353" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>453</v>
+      </c>
+      <c r="B354" t="s">
+        <v>453</v>
+      </c>
+      <c r="C354" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>454</v>
+      </c>
+      <c r="B355" t="s">
+        <v>454</v>
+      </c>
+      <c r="C355" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>455</v>
+      </c>
+      <c r="B356" t="s">
+        <v>455</v>
+      </c>
+      <c r="C356" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>456</v>
+      </c>
+      <c r="B357" t="s">
+        <v>456</v>
+      </c>
+      <c r="C357" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>457</v>
+      </c>
+      <c r="B358" t="s">
+        <v>457</v>
+      </c>
+      <c r="C358" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>458</v>
+      </c>
+      <c r="B359" t="s">
+        <v>458</v>
+      </c>
+      <c r="C359" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>459</v>
+      </c>
+      <c r="B360" t="s">
+        <v>459</v>
+      </c>
+      <c r="C360" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>460</v>
+      </c>
+      <c r="B361" t="s">
+        <v>460</v>
+      </c>
+      <c r="C361" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>461</v>
+      </c>
+      <c r="B362" t="s">
+        <v>461</v>
+      </c>
+      <c r="C362" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>462</v>
+      </c>
+      <c r="B363" t="s">
+        <v>462</v>
+      </c>
+      <c r="C363" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>463</v>
+      </c>
+      <c r="B364" t="s">
+        <v>463</v>
+      </c>
+      <c r="C364" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>464</v>
+      </c>
+      <c r="B365" t="s">
+        <v>464</v>
+      </c>
+      <c r="C365" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>465</v>
+      </c>
+      <c r="B366" t="s">
+        <v>465</v>
+      </c>
+      <c r="C366" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>466</v>
+      </c>
+      <c r="B367" t="s">
+        <v>466</v>
+      </c>
+      <c r="C367" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>467</v>
+      </c>
+      <c r="B368" t="s">
+        <v>467</v>
+      </c>
+      <c r="C368" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>468</v>
+      </c>
+      <c r="B369" t="s">
+        <v>468</v>
+      </c>
+      <c r="C369" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>469</v>
+      </c>
+      <c r="B370" t="s">
+        <v>469</v>
+      </c>
+      <c r="C370" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>470</v>
+      </c>
+      <c r="B371" t="s">
+        <v>470</v>
+      </c>
+      <c r="C371" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>471</v>
+      </c>
+      <c r="B372" t="s">
+        <v>471</v>
+      </c>
+      <c r="C372" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>472</v>
+      </c>
+      <c r="B373" t="s">
+        <v>472</v>
+      </c>
+      <c r="C373" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>474</v>
+      </c>
+      <c r="B374" t="s">
+        <v>473</v>
+      </c>
+      <c r="C374" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>473</v>
+      </c>
+      <c r="B375" t="s">
+        <v>474</v>
+      </c>
+      <c r="C375" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>475</v>
+      </c>
+      <c r="B376" t="s">
+        <v>475</v>
+      </c>
+      <c r="C376" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>476</v>
+      </c>
+      <c r="B377" t="s">
+        <v>476</v>
+      </c>
+      <c r="C377" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>477</v>
+      </c>
+      <c r="B378" t="s">
+        <v>477</v>
+      </c>
+      <c r="C378" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>478</v>
+      </c>
+      <c r="B379" t="s">
+        <v>478</v>
+      </c>
+      <c r="C379" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>479</v>
+      </c>
+      <c r="B380" t="s">
+        <v>479</v>
+      </c>
+      <c r="C380" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>480</v>
+      </c>
+      <c r="B381" t="s">
+        <v>480</v>
+      </c>
+      <c r="C381" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>481</v>
+      </c>
+      <c r="B382" t="s">
+        <v>481</v>
+      </c>
+      <c r="C382" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>482</v>
+      </c>
+      <c r="B383" t="s">
+        <v>482</v>
+      </c>
+      <c r="C383" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>483</v>
+      </c>
+      <c r="B384" t="s">
+        <v>483</v>
+      </c>
+      <c r="C384" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>484</v>
+      </c>
+      <c r="B385" t="s">
+        <v>484</v>
+      </c>
+      <c r="C385" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>485</v>
+      </c>
+      <c r="B386" t="s">
+        <v>485</v>
+      </c>
+      <c r="C386" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>486</v>
+      </c>
+      <c r="B387" t="s">
+        <v>486</v>
+      </c>
+      <c r="C387" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>487</v>
+      </c>
+      <c r="B388" t="s">
+        <v>487</v>
+      </c>
+      <c r="C388" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>488</v>
+      </c>
+      <c r="B389" t="s">
+        <v>488</v>
+      </c>
+      <c r="C389" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>489</v>
+      </c>
+      <c r="B390" t="s">
+        <v>489</v>
+      </c>
+      <c r="C390" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>490</v>
+      </c>
+      <c r="B391" t="s">
+        <v>490</v>
+      </c>
+      <c r="C391" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>491</v>
+      </c>
+      <c r="B392" t="s">
+        <v>491</v>
+      </c>
+      <c r="C392" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>492</v>
+      </c>
+      <c r="B393" t="s">
+        <v>492</v>
+      </c>
+      <c r="C393" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>493</v>
+      </c>
+      <c r="B394" t="s">
+        <v>493</v>
+      </c>
+      <c r="C394" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>494</v>
+      </c>
+      <c r="B395" t="s">
+        <v>494</v>
+      </c>
+      <c r="C395" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>495</v>
+      </c>
+      <c r="B396" t="s">
+        <v>495</v>
+      </c>
+      <c r="C396" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>496</v>
+      </c>
+      <c r="B397" t="s">
+        <v>496</v>
+      </c>
+      <c r="C397" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>497</v>
+      </c>
+      <c r="B398" t="s">
+        <v>497</v>
+      </c>
+      <c r="C398" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>498</v>
+      </c>
+      <c r="B399" t="s">
+        <v>498</v>
+      </c>
+      <c r="C399" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>499</v>
+      </c>
+      <c r="B400" t="s">
+        <v>499</v>
+      </c>
+      <c r="C400" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>500</v>
+      </c>
+      <c r="B401" t="s">
+        <v>500</v>
+      </c>
+      <c r="C401" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>501</v>
+      </c>
+      <c r="B402" t="s">
+        <v>501</v>
+      </c>
+      <c r="C402" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>502</v>
+      </c>
+      <c r="B403" t="s">
+        <v>502</v>
+      </c>
+      <c r="C403" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>503</v>
+      </c>
+      <c r="B404" t="s">
+        <v>503</v>
+      </c>
+      <c r="C404" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>504</v>
+      </c>
+      <c r="B405" t="s">
+        <v>504</v>
+      </c>
+      <c r="C405" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>505</v>
+      </c>
+      <c r="B406" t="s">
+        <v>505</v>
+      </c>
+      <c r="C406" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>506</v>
+      </c>
+      <c r="B407" t="s">
+        <v>506</v>
+      </c>
+      <c r="C407" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>529</v>
+      </c>
+      <c r="B408" t="s">
+        <v>507</v>
+      </c>
+      <c r="C408" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>530</v>
+      </c>
+      <c r="B409" t="s">
+        <v>508</v>
+      </c>
+      <c r="C409" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>507</v>
+      </c>
+      <c r="B410" t="s">
+        <v>509</v>
+      </c>
+      <c r="C410" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>508</v>
+      </c>
+      <c r="B411" t="s">
+        <v>510</v>
+      </c>
+      <c r="C411" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>509</v>
+      </c>
+      <c r="B412" t="s">
+        <v>511</v>
+      </c>
+      <c r="C412" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>510</v>
+      </c>
+      <c r="B413" t="s">
+        <v>512</v>
+      </c>
+      <c r="C413" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>511</v>
+      </c>
+      <c r="B414" t="s">
+        <v>513</v>
+      </c>
+      <c r="C414" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>512</v>
+      </c>
+      <c r="B415" t="s">
+        <v>514</v>
+      </c>
+      <c r="C415" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>513</v>
+      </c>
+      <c r="B416" t="s">
+        <v>515</v>
+      </c>
+      <c r="C416" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>514</v>
+      </c>
+      <c r="B417" t="s">
+        <v>516</v>
+      </c>
+      <c r="C417" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>515</v>
+      </c>
+      <c r="B418" t="s">
+        <v>517</v>
+      </c>
+      <c r="C418" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>516</v>
+      </c>
+      <c r="B419" t="s">
+        <v>518</v>
+      </c>
+      <c r="C419" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>517</v>
+      </c>
+      <c r="B420" t="s">
+        <v>519</v>
+      </c>
+      <c r="C420" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>518</v>
+      </c>
+      <c r="B421" t="s">
+        <v>520</v>
+      </c>
+      <c r="C421" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>519</v>
+      </c>
+      <c r="B422" t="s">
+        <v>521</v>
+      </c>
+      <c r="C422" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>520</v>
+      </c>
+      <c r="B423" t="s">
+        <v>522</v>
+      </c>
+      <c r="C423" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>521</v>
+      </c>
+      <c r="B424" t="s">
+        <v>523</v>
+      </c>
+      <c r="C424" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>522</v>
+      </c>
+      <c r="B425" t="s">
+        <v>524</v>
+      </c>
+      <c r="C425" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>523</v>
+      </c>
+      <c r="B426" t="s">
+        <v>525</v>
+      </c>
+      <c r="C426" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>524</v>
+      </c>
+      <c r="B427" t="s">
+        <v>526</v>
+      </c>
+      <c r="C427" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>525</v>
+      </c>
+      <c r="B428" t="s">
+        <v>527</v>
+      </c>
+      <c r="C428" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>526</v>
+      </c>
+      <c r="B429" t="s">
+        <v>528</v>
+      </c>
+      <c r="C429" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>527</v>
+      </c>
+      <c r="B430" t="s">
+        <v>529</v>
+      </c>
+      <c r="C430" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>528</v>
+      </c>
+      <c r="B431" t="s">
+        <v>530</v>
+      </c>
+      <c r="C431" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>531</v>
+      </c>
+      <c r="B432" t="s">
+        <v>531</v>
+      </c>
+      <c r="C432" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>532</v>
+      </c>
+      <c r="B433" t="s">
+        <v>532</v>
+      </c>
+      <c r="C433" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>533</v>
+      </c>
+      <c r="B434" t="s">
+        <v>533</v>
+      </c>
+      <c r="C434" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>534</v>
+      </c>
+      <c r="B435" t="s">
+        <v>534</v>
+      </c>
+      <c r="C435" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>535</v>
+      </c>
+      <c r="B436" t="s">
+        <v>535</v>
+      </c>
+      <c r="C436" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>536</v>
+      </c>
+      <c r="B437" t="s">
+        <v>536</v>
+      </c>
+      <c r="C437" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>537</v>
+      </c>
+      <c r="B438" t="s">
+        <v>537</v>
+      </c>
+      <c r="C438" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>538</v>
+      </c>
+      <c r="B439" t="s">
+        <v>538</v>
+      </c>
+      <c r="C439" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>539</v>
+      </c>
+      <c r="B440" t="s">
+        <v>539</v>
+      </c>
+      <c r="C440" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>540</v>
+      </c>
+      <c r="B441" t="s">
+        <v>540</v>
+      </c>
+      <c r="C441" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>541</v>
+      </c>
+      <c r="B442" t="s">
+        <v>541</v>
+      </c>
+      <c r="C442" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>542</v>
+      </c>
+      <c r="B443" t="s">
+        <v>542</v>
+      </c>
+      <c r="C443" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>543</v>
+      </c>
+      <c r="B444" t="s">
+        <v>543</v>
+      </c>
+      <c r="C444" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>544</v>
+      </c>
+      <c r="B445" t="s">
+        <v>544</v>
+      </c>
+      <c r="C445" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>545</v>
+      </c>
+      <c r="B446" t="s">
+        <v>545</v>
+      </c>
+      <c r="C446" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>546</v>
+      </c>
+      <c r="B447" t="s">
+        <v>546</v>
+      </c>
+      <c r="C447" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>547</v>
+      </c>
+      <c r="B448" t="s">
+        <v>547</v>
+      </c>
+      <c r="C448" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>548</v>
+      </c>
+      <c r="B449" t="s">
+        <v>548</v>
+      </c>
+      <c r="C449" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>549</v>
+      </c>
+      <c r="B450" t="s">
+        <v>549</v>
+      </c>
+      <c r="C450" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>550</v>
+      </c>
+      <c r="B451" t="s">
+        <v>550</v>
+      </c>
+      <c r="C451" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>551</v>
+      </c>
+      <c r="B452" t="s">
+        <v>551</v>
+      </c>
+      <c r="C452" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>552</v>
+      </c>
+      <c r="B453" t="s">
+        <v>552</v>
+      </c>
+      <c r="C453" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>553</v>
+      </c>
+      <c r="B454" t="s">
+        <v>553</v>
+      </c>
+      <c r="C454" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>554</v>
+      </c>
+      <c r="B455" t="s">
+        <v>554</v>
+      </c>
+      <c r="C455" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>555</v>
+      </c>
+      <c r="B456" t="s">
+        <v>555</v>
+      </c>
+      <c r="C456" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>556</v>
+      </c>
+      <c r="B457" t="s">
+        <v>556</v>
+      </c>
+      <c r="C457" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>557</v>
+      </c>
+      <c r="B458" t="s">
+        <v>557</v>
+      </c>
+      <c r="C458" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>558</v>
+      </c>
+      <c r="B459" t="s">
+        <v>558</v>
+      </c>
+      <c r="C459" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>559</v>
+      </c>
+      <c r="B460" t="s">
+        <v>559</v>
+      </c>
+      <c r="C460" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>560</v>
+      </c>
+      <c r="B461" t="s">
+        <v>560</v>
+      </c>
+      <c r="C461" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>561</v>
+      </c>
+      <c r="B462" t="s">
+        <v>561</v>
+      </c>
+      <c r="C462" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>562</v>
+      </c>
+      <c r="B463" t="s">
+        <v>562</v>
+      </c>
+      <c r="C463" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>563</v>
+      </c>
+      <c r="B464" t="s">
+        <v>563</v>
+      </c>
+      <c r="C464" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>564</v>
+      </c>
+      <c r="B465" t="s">
+        <v>564</v>
+      </c>
+      <c r="C465" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>565</v>
+      </c>
+      <c r="B466" t="s">
+        <v>565</v>
+      </c>
+      <c r="C466" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>566</v>
+      </c>
+      <c r="B467" t="s">
+        <v>566</v>
+      </c>
+      <c r="C467" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>567</v>
+      </c>
+      <c r="B468" t="s">
+        <v>567</v>
+      </c>
+      <c r="C468" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>568</v>
+      </c>
+      <c r="B469" t="s">
+        <v>568</v>
+      </c>
+      <c r="C469" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>569</v>
+      </c>
+      <c r="B470" t="s">
+        <v>569</v>
+      </c>
+      <c r="C470" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>570</v>
+      </c>
+      <c r="B471" t="s">
+        <v>570</v>
+      </c>
+      <c r="C471" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>571</v>
+      </c>
+      <c r="B472" t="s">
+        <v>571</v>
+      </c>
+      <c r="C472" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>572</v>
+      </c>
+      <c r="B473" t="s">
+        <v>572</v>
+      </c>
+      <c r="C473" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>573</v>
+      </c>
+      <c r="B474" t="s">
+        <v>573</v>
+      </c>
+      <c r="C474" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>574</v>
+      </c>
+      <c r="B475" t="s">
+        <v>574</v>
+      </c>
+      <c r="C475" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>575</v>
+      </c>
+      <c r="B476" t="s">
+        <v>575</v>
+      </c>
+      <c r="C476" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>576</v>
+      </c>
+      <c r="B477" t="s">
+        <v>576</v>
+      </c>
+      <c r="C477" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>577</v>
+      </c>
+      <c r="B478" t="s">
+        <v>577</v>
+      </c>
+      <c r="C478" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>578</v>
+      </c>
+      <c r="B479" t="s">
+        <v>578</v>
+      </c>
+      <c r="C479" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>579</v>
+      </c>
+      <c r="B480" t="s">
+        <v>579</v>
+      </c>
+      <c r="C480" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>580</v>
+      </c>
+      <c r="B481" t="s">
+        <v>580</v>
+      </c>
+      <c r="C481" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>581</v>
+      </c>
+      <c r="B482" t="s">
+        <v>581</v>
+      </c>
+      <c r="C482" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>582</v>
+      </c>
+      <c r="B483" t="s">
+        <v>582</v>
+      </c>
+      <c r="C483" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>583</v>
+      </c>
+      <c r="B484" t="s">
+        <v>583</v>
+      </c>
+      <c r="C484" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>589</v>
+      </c>
+      <c r="B485" t="s">
+        <v>584</v>
+      </c>
+      <c r="C485" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>584</v>
+      </c>
+      <c r="B486" t="s">
+        <v>585</v>
+      </c>
+      <c r="C486" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>585</v>
+      </c>
+      <c r="B487" t="s">
+        <v>586</v>
+      </c>
+      <c r="C487" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>586</v>
+      </c>
+      <c r="B488" t="s">
+        <v>587</v>
+      </c>
+      <c r="C488" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>587</v>
+      </c>
+      <c r="B489" t="s">
+        <v>588</v>
+      </c>
+      <c r="C489" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>588</v>
+      </c>
+      <c r="B490" t="s">
+        <v>589</v>
+      </c>
+      <c r="C490" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>590</v>
+      </c>
+      <c r="B491" t="s">
+        <v>590</v>
+      </c>
+      <c r="C491" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>591</v>
+      </c>
+      <c r="B492" t="s">
+        <v>591</v>
+      </c>
+      <c r="C492" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>592</v>
+      </c>
+      <c r="B493" t="s">
+        <v>592</v>
+      </c>
+      <c r="C493" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>593</v>
+      </c>
+      <c r="B494" t="s">
+        <v>593</v>
+      </c>
+      <c r="C494" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>594</v>
+      </c>
+      <c r="B495" t="s">
+        <v>594</v>
+      </c>
+      <c r="C495" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>595</v>
+      </c>
+      <c r="B496" t="s">
+        <v>595</v>
+      </c>
+      <c r="C496" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>596</v>
+      </c>
+      <c r="B497" t="s">
+        <v>596</v>
+      </c>
+      <c r="C497" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>597</v>
+      </c>
+      <c r="B498" t="s">
+        <v>597</v>
+      </c>
+      <c r="C498" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>598</v>
+      </c>
+      <c r="B499" t="s">
+        <v>598</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>599</v>
+      </c>
+      <c r="B500" t="s">
+        <v>599</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>600</v>
+      </c>
+      <c r="B501" t="s">
+        <v>600</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1002</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A501">
+    <sortCondition ref="A1:A501"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
